--- a/Reports/AreDifferent/decryption_canalisation/decryption_canalisation.xlsx
+++ b/Reports/AreDifferent/decryption_canalisation/decryption_canalisation.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="180" yWindow="390" windowWidth="28440" windowHeight="12195"/>
+    <workbookView xWindow="18960" yWindow="5970" windowWidth="28440" windowHeight="12195"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -14,10 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="71">
-  <si>
-    <t>Расшифровка начисления по водоотведению к общему отчёту</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="75">
   <si>
     <t>тариф</t>
   </si>
@@ -227,14 +224,30 @@
   </si>
   <si>
     <t>$SUM_t1['R_value5']</t>
+  </si>
+  <si>
+    <t>"Расшифровка начисления по водоотведению за ".$this-&gt;H['full_name_month']." ".$this-&gt;H['name_organization']</t>
+  </si>
+  <si>
+    <t>Главный бухгалтер ООО "ЭнергоКомпания"</t>
+  </si>
+  <si>
+    <t>Т.В. Скворцова</t>
+  </si>
+  <si>
+    <t>И.о. начальника абонентского сектора</t>
+  </si>
+  <si>
+    <t>Долгова Е.В.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="#,##0.0000"/>
+    <numFmt numFmtId="165" formatCode="0.00_ ;[Red]\-0.00\ "/>
   </numFmts>
   <fonts count="9">
     <font>
@@ -365,7 +378,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
@@ -457,6 +470,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -756,10 +771,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AE12"/>
+  <dimension ref="A1:AE16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="A2" sqref="A2:N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -783,24 +798,24 @@
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
       <c r="U1" t="s">
+        <v>14</v>
+      </c>
+      <c r="V1" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="V1" s="8" t="s">
+      <c r="W1" s="8" t="s">
         <v>16</v>
-      </c>
-      <c r="W1" s="8" t="s">
-        <v>17</v>
       </c>
       <c r="X1" s="8">
         <v>4</v>
       </c>
       <c r="Y1" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:31" ht="15.75" customHeight="1">
       <c r="A2" s="37" t="s">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="B2" s="37"/>
       <c r="C2" s="37"/>
@@ -846,71 +861,71 @@
     </row>
     <row r="4" spans="1:31" ht="25.5" customHeight="1">
       <c r="A4" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="23" t="s">
+      <c r="C4" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="25" t="s">
+      <c r="G4" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="I4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="G4" s="4" t="s">
+      <c r="J4" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="H4" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="I4" s="4" t="s">
+      <c r="K4" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="L4" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="M4" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="N4" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="O4" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="P4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="J4" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="K4" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="L4" s="27" t="s">
-        <v>52</v>
-      </c>
-      <c r="M4" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="N4" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="O4" s="27" t="s">
+      <c r="Q4" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="P4" s="4" t="s">
+      <c r="R4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="4" t="s">
+      <c r="S4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="T4" s="4" t="s">
         <v>54</v>
-      </c>
-      <c r="R4" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="S4" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="T4" s="4" t="s">
-        <v>55</v>
       </c>
       <c r="V4" s="11"/>
       <c r="Z4" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AA4" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AC4" s="9"/>
       <c r="AD4" s="9"/>
@@ -918,76 +933,76 @@
     </row>
     <row r="5" spans="1:31">
       <c r="A5" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="28" t="s">
+      <c r="C5" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="D5" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" s="31" t="s">
+        <v>56</v>
+      </c>
+      <c r="F5" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="29" t="s">
-        <v>56</v>
-      </c>
-      <c r="D5" s="30" t="s">
-        <v>29</v>
-      </c>
-      <c r="E5" s="31" t="s">
+      <c r="G5" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="F5" s="19" t="s">
+      <c r="H5" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="G5" s="19" t="s">
+      <c r="I5" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="J5" s="32" t="s">
         <v>58</v>
       </c>
-      <c r="H5" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="I5" s="32" t="s">
+      <c r="K5" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="L5" s="33" t="s">
+        <v>59</v>
+      </c>
+      <c r="M5" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="N5" s="34" t="s">
+        <v>47</v>
+      </c>
+      <c r="O5" s="34" t="s">
+        <v>60</v>
+      </c>
+      <c r="P5" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="J5" s="32" t="s">
-        <v>59</v>
-      </c>
-      <c r="K5" s="33" t="s">
-        <v>38</v>
-      </c>
-      <c r="L5" s="33" t="s">
-        <v>60</v>
-      </c>
-      <c r="M5" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="N5" s="34" t="s">
-        <v>48</v>
-      </c>
-      <c r="O5" s="34" t="s">
+      <c r="Q5" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="P5" s="19" t="s">
+      <c r="R5" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="Q5" s="19" t="s">
+      <c r="S5" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="T5" s="32" t="s">
         <v>62</v>
       </c>
-      <c r="R5" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="S5" s="32" t="s">
-        <v>37</v>
-      </c>
-      <c r="T5" s="32" t="s">
-        <v>63</v>
-      </c>
       <c r="V5" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="W5" s="12" t="s">
         <v>20</v>
-      </c>
-      <c r="W5" s="12" t="s">
-        <v>21</v>
       </c>
       <c r="X5" s="12">
         <v>1</v>
       </c>
       <c r="Y5" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Z5" s="13"/>
       <c r="AA5" s="13"/>
@@ -998,81 +1013,81 @@
     </row>
     <row r="6" spans="1:31">
       <c r="A6" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C6" s="20" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D6" s="35" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E6" s="20"/>
       <c r="F6" s="20" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G6" s="20" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H6" s="21"/>
       <c r="I6" s="36" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J6" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="K6" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="L6" s="20" t="s">
         <v>66</v>
-      </c>
-      <c r="K6" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="L6" s="20" t="s">
-        <v>67</v>
       </c>
       <c r="M6" s="21"/>
       <c r="N6" s="21" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="O6" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="P6" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q6" s="20" t="s">
         <v>68</v>
-      </c>
-      <c r="P6" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q6" s="20" t="s">
-        <v>69</v>
       </c>
       <c r="R6" s="21"/>
       <c r="S6" s="20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="T6" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="V6" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="W6" s="15" t="s">
         <v>23</v>
-      </c>
-      <c r="W6" s="15" t="s">
-        <v>24</v>
       </c>
       <c r="X6" s="15">
         <v>1</v>
       </c>
       <c r="Y6" s="15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Z6" s="15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AA6" s="15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AB6" s="15"/>
       <c r="AC6" s="16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AD6" s="16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AE6" s="16">
         <v>0</v>
@@ -1080,42 +1095,72 @@
     </row>
     <row r="7" spans="1:31">
       <c r="V7" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="W7" s="17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="X7" s="8">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="Y7" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:31">
+      <c r="A8" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="B8" s="39"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9" t="s">
+        <v>72</v>
+      </c>
       <c r="AC8" s="9"/>
       <c r="AD8" s="9"/>
       <c r="AE8" s="9"/>
     </row>
     <row r="9" spans="1:31">
+      <c r="A9" s="9"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
       <c r="AC9" s="9"/>
       <c r="AD9" s="9"/>
       <c r="AE9" s="9"/>
     </row>
     <row r="10" spans="1:31">
-      <c r="Z10" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="AA10" s="17" t="s">
+      <c r="A10" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="B10" s="40"/>
+      <c r="C10" s="40"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+    </row>
+    <row r="11" spans="1:31">
+      <c r="A11" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="B11" s="39"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="U11" s="10"/>
+    </row>
+    <row r="14" spans="1:31">
+      <c r="Z14" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="AA14" s="17" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31">
+      <c r="V16" s="18" t="s">
         <v>27</v>
-      </c>
-    </row>
-    <row r="11" spans="1:31">
-      <c r="U11" s="10"/>
-    </row>
-    <row r="12" spans="1:31">
-      <c r="V12" s="18" t="s">
-        <v>28</v>
       </c>
     </row>
   </sheetData>
